--- a/biology/Médecine/Jeux_globaux/Jeux_globaux.xlsx
+++ b/biology/Médecine/Jeux_globaux/Jeux_globaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jeux globaux ou Jeux globaux Virtus (en anglais Global Games ou Virtus Global Games) sont des compétitions multisports organisés tous les 4 ans par Virtus à destination des sportifs atteints d'un handicap mental.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers « Jeux mondiaux pour les athlètes présentant une déficience intellectuelle » (World Games for Athletes with an Intellectual Disability) sont organisés par l'INAS-FMH à Härnösand en Suède[1].
-À la suite de la tricherie de l'équipe espagnole de basket-ball adapté aux Jeux paralympiques de 2000, les athlètes déficients mentaux ont été écartés du programme des Jeux paralympiques. Ceux-ci ont fait leur retour aux Jeux paralympiques de 2012, à la suite d'une réforme des processus d’éligibilité et de classification[2].
-Durant ce laps de temps, l'INAS crée les Global Games regroupant le programme complet des compétitions. À la différence des Jeux Paralympiques où il n’y a qu'une classe pour les déficients intellectuels, les Global Games comptent 3 classes différentes[2].
-Ainsi, en juillet 2004, les premiers Global Games se déroulent à Bollnäs en Suède, avec plus de 1 000 athlètes venus du monde entier[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers « Jeux mondiaux pour les athlètes présentant une déficience intellectuelle » (World Games for Athletes with an Intellectual Disability) sont organisés par l'INAS-FMH à Härnösand en Suède.
+À la suite de la tricherie de l'équipe espagnole de basket-ball adapté aux Jeux paralympiques de 2000, les athlètes déficients mentaux ont été écartés du programme des Jeux paralympiques. Ceux-ci ont fait leur retour aux Jeux paralympiques de 2012, à la suite d'une réforme des processus d’éligibilité et de classification.
+Durant ce laps de temps, l'INAS crée les Global Games regroupant le programme complet des compétitions. À la différence des Jeux Paralympiques où il n’y a qu'une classe pour les déficients intellectuels, les Global Games comptent 3 classes différentes.
+Ainsi, en juillet 2004, les premiers Global Games se déroulent à Bollnäs en Suède, avec plus de 1 000 athlètes venus du monde entier,.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,6 +588,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
